--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331143.5980380471</v>
+        <v>-333883.1051016475</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.0210952753258</v>
       </c>
       <c r="H2" t="n">
-        <v>104.6972904030989</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.544908594732902</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.1631215286517</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>68.71573135814123</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>110.0922756836158</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9675131980197</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.1276279173545</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.4607086716598303</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>131.2746311087024</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.1803741318668</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>157.3969810024676</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>328.7786982957878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.02109527532582</v>
+        <v>413.0210952753258</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>316.1079335273208</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>157.0271470465924</v>
       </c>
       <c r="T5" t="n">
-        <v>213.1079606593664</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>140.5282429129571</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9675131980197</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>124.6720562115103</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>167.9972557589875</v>
       </c>
       <c r="T7" t="n">
-        <v>31.71079829235072</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2632039295578</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>308.3108474422899</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>93.95017139882603</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>271.7258299522177</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>65.41403055674121</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>64.91921363453635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>5.421623586788709</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>27.02919805176109</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>165.8053198049109</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>87.21471514852939</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>28.54004930889258</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>275.8584009063787</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.1666147997992</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670954</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.833192351753</v>
+        <v>1608.257283880984</v>
       </c>
       <c r="C2" t="n">
-        <v>516.8706754113414</v>
+        <v>1239.294766940572</v>
       </c>
       <c r="D2" t="n">
-        <v>158.6049768045909</v>
+        <v>881.0290683338217</v>
       </c>
       <c r="E2" t="n">
-        <v>158.6049768045909</v>
+        <v>881.0290683338217</v>
       </c>
       <c r="F2" t="n">
-        <v>158.6049768045909</v>
+        <v>470.0431635442141</v>
       </c>
       <c r="G2" t="n">
-        <v>158.6049768045909</v>
+        <v>52.85013801358189</v>
       </c>
       <c r="H2" t="n">
         <v>52.85013801358189</v>
@@ -4328,52 +4328,52 @@
         <v>52.85013801358189</v>
       </c>
       <c r="J2" t="n">
-        <v>65.32971025266133</v>
+        <v>232.7353592730144</v>
       </c>
       <c r="K2" t="n">
-        <v>360.372792656104</v>
+        <v>623.0814797554492</v>
       </c>
       <c r="L2" t="n">
-        <v>896.9082994218713</v>
+        <v>1119.68991383643</v>
       </c>
       <c r="M2" t="n">
-        <v>1065.495577338365</v>
+        <v>1288.277191752924</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.398037210818</v>
+        <v>1464.206196457512</v>
       </c>
       <c r="O2" t="n">
-        <v>2204.179725796797</v>
+        <v>1993.987885043492</v>
       </c>
       <c r="P2" t="n">
-        <v>2618.661757164842</v>
+        <v>2408.469916411536</v>
       </c>
       <c r="Q2" t="n">
         <v>2642.506900679095</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.506900679095</v>
+        <v>2635.895881896536</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.506900679095</v>
+        <v>2635.895881896536</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.506900679095</v>
+        <v>2635.895881896536</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.80677792288</v>
+        <v>2382.195759140322</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.80677792288</v>
+        <v>2051.132871796752</v>
       </c>
       <c r="W2" t="n">
-        <v>2036.038122652766</v>
+        <v>1981.723042142064</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.572364391687</v>
+        <v>1608.257283880984</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.433032415875</v>
+        <v>1608.257283880984</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>52.85013801358189</v>
       </c>
       <c r="K3" t="n">
-        <v>111.5460147710133</v>
+        <v>373.3665994134662</v>
       </c>
       <c r="L3" t="n">
-        <v>603.9243475980508</v>
+        <v>865.7449322405037</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.485859661909</v>
+        <v>1031.258431191862</v>
       </c>
       <c r="N3" t="n">
-        <v>1677.081002119974</v>
+        <v>1685.278889109938</v>
       </c>
       <c r="O3" t="n">
-        <v>2213.385952752324</v>
+        <v>2221.583839742289</v>
       </c>
       <c r="P3" t="n">
         <v>2626.814889437029</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.1785633826468</v>
+        <v>487.6650114475194</v>
       </c>
       <c r="C4" t="n">
-        <v>376.1785633826468</v>
+        <v>318.7288285196125</v>
       </c>
       <c r="D4" t="n">
-        <v>376.1785633826468</v>
+        <v>318.7288285196125</v>
       </c>
       <c r="E4" t="n">
-        <v>376.1785633826468</v>
+        <v>318.7288285196125</v>
       </c>
       <c r="F4" t="n">
-        <v>376.1785633826468</v>
+        <v>207.5245096472733</v>
       </c>
       <c r="G4" t="n">
         <v>207.5245096472733</v>
@@ -4507,31 +4507,31 @@
         <v>1010.642480229506</v>
       </c>
       <c r="Q4" t="n">
-        <v>1010.642480229506</v>
+        <v>1010.1771179349</v>
       </c>
       <c r="R4" t="n">
-        <v>1010.642480229506</v>
+        <v>877.576480451362</v>
       </c>
       <c r="S4" t="n">
-        <v>1010.642480229506</v>
+        <v>669.3134762777592</v>
       </c>
       <c r="T4" t="n">
-        <v>1010.642480229506</v>
+        <v>669.3134762777592</v>
       </c>
       <c r="U4" t="n">
-        <v>1010.642480229506</v>
+        <v>669.3134762777592</v>
       </c>
       <c r="V4" t="n">
-        <v>755.9579920236189</v>
+        <v>669.3134762777592</v>
       </c>
       <c r="W4" t="n">
-        <v>755.9579920236189</v>
+        <v>669.3134762777592</v>
       </c>
       <c r="X4" t="n">
-        <v>596.9711425261769</v>
+        <v>669.3134762777592</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.1785633826468</v>
+        <v>669.3134762777592</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.354058148439</v>
+        <v>1558.595709897462</v>
       </c>
       <c r="C5" t="n">
-        <v>1167.354058148439</v>
+        <v>1558.595709897462</v>
       </c>
       <c r="D5" t="n">
-        <v>809.0883595416881</v>
+        <v>1200.330011290711</v>
       </c>
       <c r="E5" t="n">
-        <v>476.9886642934175</v>
+        <v>1200.330011290711</v>
       </c>
       <c r="F5" t="n">
-        <v>66.00275950380998</v>
+        <v>789.3441065011039</v>
       </c>
       <c r="G5" t="n">
-        <v>52.85013801358189</v>
+        <v>372.1510809704716</v>
       </c>
       <c r="H5" t="n">
         <v>52.85013801358189</v>
@@ -4565,25 +4565,25 @@
         <v>52.85013801358189</v>
       </c>
       <c r="J5" t="n">
-        <v>65.32971025266133</v>
+        <v>232.7353592730144</v>
       </c>
       <c r="K5" t="n">
-        <v>455.6758307350962</v>
+        <v>495.639335599958</v>
       </c>
       <c r="L5" t="n">
-        <v>896.9082994218713</v>
+        <v>618.6902399607793</v>
       </c>
       <c r="M5" t="n">
-        <v>1065.495577338365</v>
+        <v>1232.295916035177</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.398037210818</v>
+        <v>1841.19837590763</v>
       </c>
       <c r="O5" t="n">
-        <v>2204.179725796797</v>
+        <v>1993.987885043492</v>
       </c>
       <c r="P5" t="n">
-        <v>2618.661757164842</v>
+        <v>2408.469916411536</v>
       </c>
       <c r="Q5" t="n">
         <v>2642.506900679095</v>
@@ -4595,22 +4595,22 @@
         <v>2477.282602051493</v>
       </c>
       <c r="T5" t="n">
-        <v>2262.022035728901</v>
+        <v>2477.282602051493</v>
       </c>
       <c r="U5" t="n">
-        <v>2262.022035728901</v>
+        <v>2477.282602051493</v>
       </c>
       <c r="V5" t="n">
-        <v>1930.95914838533</v>
+        <v>2477.282602051493</v>
       </c>
       <c r="W5" t="n">
-        <v>1930.95914838533</v>
+        <v>2477.282602051493</v>
       </c>
       <c r="X5" t="n">
-        <v>1557.49339012425</v>
+        <v>2335.334881937395</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.354058148439</v>
+        <v>1945.195549961584</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>979.1899580024827</v>
       </c>
       <c r="M6" t="n">
-        <v>1492.778208436413</v>
+        <v>1144.703456953841</v>
       </c>
       <c r="N6" t="n">
-        <v>1677.081002119974</v>
+        <v>1469.104487261483</v>
       </c>
       <c r="O6" t="n">
-        <v>2213.385952752324</v>
+        <v>2005.409437893834</v>
       </c>
       <c r="P6" t="n">
-        <v>2626.814889437029</v>
+        <v>2418.838374578539</v>
       </c>
       <c r="Q6" t="n">
         <v>2642.506900679095</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.7815079241984</v>
+        <v>369.4172853313485</v>
       </c>
       <c r="C7" t="n">
-        <v>178.7815079241984</v>
+        <v>369.4172853313485</v>
       </c>
       <c r="D7" t="n">
-        <v>178.7815079241984</v>
+        <v>369.4172853313485</v>
       </c>
       <c r="E7" t="n">
-        <v>178.7815079241984</v>
+        <v>221.5041917489554</v>
       </c>
       <c r="F7" t="n">
-        <v>178.7815079241984</v>
+        <v>221.5041917489554</v>
       </c>
       <c r="G7" t="n">
-        <v>178.7815079241984</v>
+        <v>52.85013801358189</v>
       </c>
       <c r="H7" t="n">
-        <v>178.7815079241984</v>
+        <v>52.85013801358189</v>
       </c>
       <c r="I7" t="n">
         <v>52.85013801358189</v>
@@ -4750,25 +4750,25 @@
         <v>1010.1771179349</v>
       </c>
       <c r="S7" t="n">
-        <v>1010.1771179349</v>
+        <v>840.4829201985488</v>
       </c>
       <c r="T7" t="n">
-        <v>978.146008548687</v>
+        <v>840.4829201985488</v>
       </c>
       <c r="U7" t="n">
-        <v>688.9912571046891</v>
+        <v>840.4829201985488</v>
       </c>
       <c r="V7" t="n">
-        <v>688.9912571046891</v>
+        <v>840.4829201985488</v>
       </c>
       <c r="W7" t="n">
-        <v>399.5740870677285</v>
+        <v>551.0657501615882</v>
       </c>
       <c r="X7" t="n">
-        <v>399.5740870677285</v>
+        <v>551.0657501615882</v>
       </c>
       <c r="Y7" t="n">
-        <v>178.7815079241984</v>
+        <v>551.0657501615882</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1802.460320562238</v>
+        <v>1684.799051700882</v>
       </c>
       <c r="C8" t="n">
-        <v>1433.497803621826</v>
+        <v>1315.83653476047</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.232105015076</v>
+        <v>957.5708361537195</v>
       </c>
       <c r="E8" t="n">
-        <v>689.4438524168313</v>
+        <v>571.7825835554752</v>
       </c>
       <c r="F8" t="n">
-        <v>682.4983516676278</v>
+        <v>160.7966787658676</v>
       </c>
       <c r="G8" t="n">
-        <v>371.0732532410724</v>
+        <v>147.7493010426991</v>
       </c>
       <c r="H8" t="n">
-        <v>52.85013801358189</v>
+        <v>52.85013801358193</v>
       </c>
       <c r="I8" t="n">
-        <v>52.85013801358189</v>
+        <v>52.85013801358193</v>
       </c>
       <c r="J8" t="n">
-        <v>74.08438800696518</v>
+        <v>74.08438800696523</v>
       </c>
       <c r="K8" t="n">
-        <v>232.692394666716</v>
+        <v>477.5515010270107</v>
       </c>
       <c r="L8" t="n">
-        <v>372.0210505079692</v>
+        <v>1030.36475927321</v>
       </c>
       <c r="M8" t="n">
-        <v>1003.738861491281</v>
+        <v>1662.082570256522</v>
       </c>
       <c r="N8" t="n">
-        <v>1631.046529551128</v>
+        <v>2116.427589337709</v>
       </c>
       <c r="O8" t="n">
-        <v>2178.207734318205</v>
+        <v>2286.596614654669</v>
       </c>
       <c r="P8" t="n">
-        <v>2607.522780657499</v>
+        <v>2397.330939904195</v>
       </c>
       <c r="Q8" t="n">
-        <v>2642.506900679095</v>
+        <v>2642.506900679096</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.506900679095</v>
+        <v>2642.506900679096</v>
       </c>
       <c r="S8" t="n">
-        <v>2486.291863175923</v>
+        <v>2642.506900679096</v>
       </c>
       <c r="T8" t="n">
-        <v>2486.291863175923</v>
+        <v>2427.707038946808</v>
       </c>
       <c r="U8" t="n">
-        <v>2486.291863175923</v>
+        <v>2427.707038946808</v>
       </c>
       <c r="V8" t="n">
-        <v>2155.228975832352</v>
+        <v>2427.707038946808</v>
       </c>
       <c r="W8" t="n">
-        <v>1802.460320562238</v>
+        <v>2074.938383676693</v>
       </c>
       <c r="X8" t="n">
-        <v>1802.460320562238</v>
+        <v>2074.938383676693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1802.460320562238</v>
+        <v>1684.799051700882</v>
       </c>
     </row>
     <row r="9">
@@ -4875,22 +4875,22 @@
         <v>199.6709728784608</v>
       </c>
       <c r="H9" t="n">
-        <v>98.75499502326539</v>
+        <v>98.75499502326544</v>
       </c>
       <c r="I9" t="n">
-        <v>52.85013801358189</v>
+        <v>52.85013801358193</v>
       </c>
       <c r="J9" t="n">
-        <v>52.85013801358189</v>
+        <v>171.5093898704776</v>
       </c>
       <c r="K9" t="n">
-        <v>382.2785423193918</v>
+        <v>500.9377941762875</v>
       </c>
       <c r="L9" t="n">
-        <v>886.6400821855103</v>
+        <v>1005.299334042406</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.42122050792</v>
+        <v>1184.796670397011</v>
       </c>
       <c r="N9" t="n">
         <v>1431.077962160584</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.6444062655837</v>
+        <v>368.6762684393992</v>
       </c>
       <c r="C10" t="n">
-        <v>515.6444062655837</v>
+        <v>199.7400855114923</v>
       </c>
       <c r="D10" t="n">
-        <v>365.527766853248</v>
+        <v>199.7400855114923</v>
       </c>
       <c r="E10" t="n">
-        <v>217.6146732708549</v>
+        <v>199.7400855114923</v>
       </c>
       <c r="F10" t="n">
-        <v>70.72472577294451</v>
+        <v>52.85013801358193</v>
       </c>
       <c r="G10" t="n">
-        <v>70.72472577294451</v>
+        <v>52.85013801358193</v>
       </c>
       <c r="H10" t="n">
-        <v>70.72472577294451</v>
+        <v>52.85013801358193</v>
       </c>
       <c r="I10" t="n">
-        <v>70.72472577294451</v>
+        <v>52.85013801358193</v>
       </c>
       <c r="J10" t="n">
-        <v>52.85013801358189</v>
+        <v>52.85013801358193</v>
       </c>
       <c r="K10" t="n">
         <v>153.8980676091917</v>
@@ -4993,19 +4993,19 @@
         <v>1052.784819472927</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.784819472927</v>
+        <v>778.3142841676563</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.784819472927</v>
+        <v>778.3142841676563</v>
       </c>
       <c r="W10" t="n">
-        <v>763.3676494359661</v>
+        <v>778.3142841676563</v>
       </c>
       <c r="X10" t="n">
-        <v>697.2928710958234</v>
+        <v>550.324733269639</v>
       </c>
       <c r="Y10" t="n">
-        <v>697.2928710958234</v>
+        <v>550.324733269639</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372933</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>853.594109445026</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326902</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502971</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>408.6744289523867</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>241.4783296672667</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.378057281681</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346703</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203173</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D22" t="n">
-        <v>572.9069687101817</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E22" t="n">
-        <v>572.9069687101817</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>204.7316990353033</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1698.816231110126</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.306025422648</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>929.3698424947411</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>779.2532030824053</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.3401095000122</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.4501620021018</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1279.954490252888</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7558,22 +7558,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7640,28 +7640,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,10 +7673,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7719,13 +7719,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
         <v>577.3880777468471</v>
@@ -7734,10 +7734,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>227.8797175418798</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>377.3308381011711</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7997,7 +7997,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,22 +8058,22 @@
         <v>11.50010022729865</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>264.9417664388922</v>
+        <v>474.4622871055705</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>310.1820747106801</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>195.4159740302646</v>
       </c>
       <c r="L5" t="n">
-        <v>321.3955195211655</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>351.5906580632034</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>141.5133703273546</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,25 +8453,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>76.81298190420051</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>262.6371779688943</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311156</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>201.4988301584915</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.02109527532582</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>211.410643124222</v>
+        <v>316.1079335273208</v>
       </c>
       <c r="I2" t="n">
-        <v>115.5097711540143</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>157.0271470465924</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>75.37549921168751</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.4047645948046</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>58.20633287440185</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>10.32607348286541</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.3575234924696531</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>57.2291039219418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-2.945804527247846e-15</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350414</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524991</v>
@@ -26320,40 +26320,40 @@
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="H2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="I2" t="n">
         <v>282501.3098915023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="L2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="M2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="M2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22196.18965038246</v>
+        <v>22196.18965038264</v>
       </c>
       <c r="E3" t="n">
-        <v>775131.4303575755</v>
+        <v>775131.4303575753</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>172849.0188803203</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>1.755561243044213e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>127612.7738083765</v>
+        <v>127612.7738083764</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>188137.9866303919</v>
       </c>
       <c r="D4" t="n">
-        <v>183759.3889999097</v>
+        <v>183759.3889999096</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695109</v>
-      </c>
       <c r="G4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695071</v>
+        <v>6287.480531695028</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.480531695042</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695013</v>
+        <v>6287.480531694964</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478858</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478858</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>86166.48034624776</v>
       </c>
       <c r="D5" t="n">
-        <v>86731.48387769205</v>
+        <v>86731.48387769208</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732642.8118110013</v>
+        <v>-732898.6810504114</v>
       </c>
       <c r="C6" t="n">
         <v>13060.15247585942</v>
       </c>
       <c r="D6" t="n">
-        <v>-5322.443075484916</v>
+        <v>-5322.443075485004</v>
       </c>
       <c r="E6" t="n">
-        <v>-600040.1308216755</v>
+        <v>-600074.8687471108</v>
       </c>
       <c r="F6" t="n">
-        <v>175091.2995359002</v>
+        <v>175056.5616104644</v>
       </c>
       <c r="G6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104642</v>
       </c>
       <c r="H6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104642</v>
       </c>
       <c r="I6" t="n">
-        <v>175091.2995359</v>
+        <v>175056.5616104644</v>
       </c>
       <c r="J6" t="n">
-        <v>2242.280655579816</v>
+        <v>2207.542730144123</v>
       </c>
       <c r="K6" t="n">
-        <v>175091.2995358999</v>
+        <v>175056.5616104642</v>
       </c>
       <c r="L6" t="n">
-        <v>175091.2995359001</v>
+        <v>175056.5616104646</v>
       </c>
       <c r="M6" t="n">
-        <v>47478.52572752356</v>
+        <v>47443.78780208793</v>
       </c>
       <c r="N6" t="n">
-        <v>175091.2995359</v>
+        <v>175056.5616104642</v>
       </c>
       <c r="O6" t="n">
         <v>150494.4458101636</v>
       </c>
       <c r="P6" t="n">
-        <v>169922.1638037955</v>
+        <v>169922.1638037953</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26695,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.416547881920234e-15</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26793,7 +26793,7 @@
         <v>660.6267251697736</v>
       </c>
       <c r="D4" t="n">
-        <v>660.6267251697736</v>
+        <v>660.6267251697741</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>25.91759318551829</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,10 +26984,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.750233545316448e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.750684760710724e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>512.0815629298747</v>
+        <v>512.0815629298743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>660.6267251697737</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>512.0815629298747</v>
+        <v>512.0815629298743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.750684760710724e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>512.0815629298747</v>
+        <v>512.0815629298743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.2350115049891</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.00310596614608</v>
+        <v>122.5128771201604</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.544908594732902</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>157.0271470465924</v>
       </c>
       <c r="T2" t="n">
         <v>213.1079606593664</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>280.5252373592718</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>35.32877233931542</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9675131980197</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4607086716598303</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.2746311087024</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.1803741318668</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.5725976518602</v>
@@ -27594,16 +27594,16 @@
         <v>286.2632039295578</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>68.3126743865696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>53.15167177647396</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.1079335273208</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>122.5128771201604</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.1079606593664</v>
       </c>
       <c r="U5" t="n">
         <v>251.1631215286517</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>229.202857765512</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9675131980197</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.1276279173545</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>124.6720562115103</v>
       </c>
       <c r="J7" t="n">
         <v>21.00012257363416</v>
@@ -27822,13 +27822,13 @@
         <v>131.2746311087024</v>
       </c>
       <c r="S7" t="n">
-        <v>206.1803741318668</v>
+        <v>38.18311837287928</v>
       </c>
       <c r="T7" t="n">
-        <v>191.8617993595095</v>
+        <v>223.5725976518602</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2632039295578</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>104.6060565036469</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>221.0907126763895</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>14.53482470587926</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>160.2956248322959</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.523735785918312e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.103721172290121e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>460.9249101897659</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>454.5606621218849</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,22 +33263,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,7 +33287,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,22 +34445,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12.60562852432267</v>
+        <v>181.7022436963964</v>
       </c>
       <c r="K2" t="n">
-        <v>298.023315559033</v>
+        <v>394.289010588318</v>
       </c>
       <c r="L2" t="n">
-        <v>541.9550573391589</v>
+        <v>501.6246808898795</v>
       </c>
       <c r="M2" t="n">
         <v>170.2901797136303</v>
       </c>
       <c r="N2" t="n">
-        <v>615.0529897701542</v>
+        <v>177.7060653581701</v>
       </c>
       <c r="O2" t="n">
         <v>535.1330187737166</v>
@@ -34717,7 +34717,7 @@
         <v>418.6687185535806</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.08600354974985</v>
+        <v>236.4009942096545</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>59.28876440144589</v>
+        <v>323.7540014140245</v>
       </c>
       <c r="L3" t="n">
         <v>497.3518513404419</v>
       </c>
       <c r="M3" t="n">
-        <v>632.8904162261196</v>
+        <v>167.1853524761196</v>
       </c>
       <c r="N3" t="n">
-        <v>451.1062045030953</v>
+        <v>660.6267251697736</v>
       </c>
       <c r="O3" t="n">
         <v>541.7221723559096</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6049865502068</v>
+        <v>409.3242926209497</v>
       </c>
       <c r="Q3" t="n">
         <v>15.85051640612681</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>12.60562852432267</v>
+        <v>181.7022436963964</v>
       </c>
       <c r="K5" t="n">
-        <v>394.289010588318</v>
+        <v>265.5595720474178</v>
       </c>
       <c r="L5" t="n">
-        <v>445.6893623098739</v>
+        <v>124.2938427887084</v>
       </c>
       <c r="M5" t="n">
-        <v>170.2901797136303</v>
+        <v>619.8037132064628</v>
       </c>
       <c r="N5" t="n">
         <v>615.0529897701542</v>
       </c>
       <c r="O5" t="n">
-        <v>535.1330187737166</v>
+        <v>154.3328375109712</v>
       </c>
       <c r="P5" t="n">
         <v>418.6687185535806</v>
       </c>
       <c r="Q5" t="n">
-        <v>24.08600354974985</v>
+        <v>236.4009942096545</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>497.3518513404419</v>
       </c>
       <c r="M6" t="n">
-        <v>518.776010539323</v>
+        <v>167.1853524761196</v>
       </c>
       <c r="N6" t="n">
-        <v>186.1644380642032</v>
+        <v>327.6778083915578</v>
       </c>
       <c r="O6" t="n">
         <v>541.7221723559096</v>
@@ -35033,7 +35033,7 @@
         <v>417.6049865502068</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.85051640612681</v>
+        <v>225.9278041419759</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>160.2101077371221</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>458.9343627082704</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933427</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>322.3705304098917</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>316.7192231475259</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
